--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\StartConfig\Release\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5678BDDC-213A-45E7-98DD-07A764D05D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="3330" yWindow="1800" windowWidth="19725" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -99,19 +105,22 @@
   </si>
   <si>
     <t>Router04</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>UnitCache</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,151 +142,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,194 +161,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -485,251 +170,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -747,61 +190,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1088,29 +487,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1190,7 +589,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -1210,7 +609,7 @@
         <v>30003</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <v>3</v>
       </c>
@@ -1230,7 +629,7 @@
         <v>30004</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>4</v>
       </c>
@@ -1248,7 +647,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -1266,7 +665,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <v>6</v>
       </c>
@@ -1284,7 +683,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <v>7</v>
       </c>
@@ -1302,33 +701,86 @@
       </c>
       <c r="H12" s="5"/>
     </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3">
+        <v>30005</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>300</v>
       </c>
@@ -1408,7 +860,7 @@
         <v>30300</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
+    <row r="7" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="5">
         <v>301</v>
       </c>
@@ -1428,7 +880,7 @@
         <v>30301</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:8">
+    <row r="8" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="5">
         <v>302</v>
       </c>
@@ -1448,7 +900,7 @@
         <v>30302</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:8">
+    <row r="9" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="5">
         <v>303</v>
       </c>
@@ -1468,7 +920,7 @@
         <v>30303</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:8">
+    <row r="10" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="5">
         <v>304</v>
       </c>
@@ -1489,8 +941,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>